--- a/src/schedule/version3/data/Egy jó órarend évfolyam csoportbontással.xlsx
+++ b/src/schedule/version3/data/Egy jó órarend évfolyam csoportbontással.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasznalo\Desktop\képzés\Java képzés\ak_iterator\SchoolSchedule\src\schedule\version3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FAC826-8481-4977-B82E-7505E96C0D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF1577-C82E-4B8F-ACBC-03D94C343A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -889,7 +889,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -901,22 +900,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -985,122 +975,133 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1383,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D59A32-1C07-44DC-B0AB-31288AF032DB}">
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1392,8 +1393,8 @@
     <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="5" width="33.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="55" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="45" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="10" width="39.42578125" customWidth="1"/>
@@ -1409,231 +1410,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="134"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="2:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:19" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="120" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="120" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="120" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="120" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="120" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="120" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="121"/>
+      <c r="S3" s="82"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="107"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="120"/>
     </row>
     <row r="5" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="122" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="99"/>
+      <c r="C5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="88"/>
+      <c r="L5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="88"/>
+      <c r="N5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="118"/>
     </row>
     <row r="6" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="128"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="81" t="s">
+      <c r="D6" s="126"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="86"/>
+      <c r="H6" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="81" t="s">
+      <c r="I6" s="86"/>
+      <c r="J6" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="82"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="82"/>
+      <c r="O6" s="86"/>
       <c r="P6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="S6" s="100"/>
+      <c r="S6" s="122"/>
     </row>
     <row r="7" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="128"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="56" t="s">
+      <c r="D7" s="126"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="54" t="s">
         <v>71</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>107</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="R7" s="75" t="s">
+      <c r="R7" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="42" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="81" t="s">
+      <c r="D8" s="126"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="124" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="125"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="82"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="25" t="s">
         <v>110</v>
       </c>
       <c r="R8" s="5" t="s">
@@ -1644,86 +1645,86 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="128"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="82"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="82"/>
-      <c r="N9" s="81" t="s">
+      <c r="M9" s="86"/>
+      <c r="N9" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="81" t="s">
+      <c r="O9" s="86"/>
+      <c r="P9" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="81" t="s">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="100"/>
+      <c r="S9" s="122"/>
     </row>
     <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="128"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="81" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="81" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="82"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="Q10" s="82"/>
+      <c r="Q10" s="86"/>
       <c r="R10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1732,80 +1733,80 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="128"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="81" t="s">
+      <c r="D11" s="126"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="82"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>122</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="85" t="s">
+      <c r="P11" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="81" t="s">
+      <c r="Q11" s="88"/>
+      <c r="R11" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="S11" s="100"/>
+      <c r="S11" s="122"/>
     </row>
     <row r="12" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="128"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="85" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="81" t="s">
+      <c r="G12" s="88"/>
+      <c r="H12" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="82"/>
-      <c r="J12" s="85" t="s">
+      <c r="I12" s="86"/>
+      <c r="J12" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="86"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85" t="s">
+      <c r="O12" s="86"/>
+      <c r="P12" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="86"/>
+      <c r="Q12" s="88"/>
       <c r="R12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1814,136 +1815,136 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="128"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="85" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="85" t="s">
+      <c r="G13" s="88"/>
+      <c r="H13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="85" t="s">
+      <c r="I13" s="88"/>
+      <c r="J13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="85" t="s">
+      <c r="K13" s="88"/>
+      <c r="L13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="86"/>
-      <c r="N13" s="85" t="s">
+      <c r="M13" s="88"/>
+      <c r="N13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="86"/>
-      <c r="P13" s="85" t="s">
+      <c r="O13" s="88"/>
+      <c r="P13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="85" t="s">
+      <c r="Q13" s="88"/>
+      <c r="R13" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="99"/>
+      <c r="S13" s="118"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="108"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="115"/>
     </row>
     <row r="15" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="86"/>
+      <c r="C15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="125"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="88"/>
       <c r="H15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="86"/>
-      <c r="N15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="86"/>
-      <c r="P15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="99"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="88"/>
+      <c r="L15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="88"/>
+      <c r="N15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="88"/>
+      <c r="P15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="118"/>
     </row>
     <row r="16" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="129"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="83" t="s">
+      <c r="G16" s="92"/>
+      <c r="H16" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="83" t="s">
+      <c r="I16" s="92"/>
+      <c r="J16" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="83" t="s">
+      <c r="K16" s="92"/>
+      <c r="L16" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="84"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="83" t="s">
+      <c r="P16" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="Q16" s="84"/>
+      <c r="Q16" s="92"/>
       <c r="R16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1952,1460 +1953,1460 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="129"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="83" t="s">
+      <c r="K17" s="92"/>
+      <c r="L17" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="84"/>
+      <c r="M17" s="92"/>
       <c r="N17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="23" t="s">
         <v>123</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="S17" s="101"/>
+      <c r="S17" s="121"/>
     </row>
     <row r="18" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="129"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="127"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="55" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>110</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="O18" s="43" t="s">
+      <c r="O18" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="P18" s="83" t="s">
+      <c r="P18" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="83" t="s">
+      <c r="Q18" s="92"/>
+      <c r="R18" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="S18" s="101"/>
+      <c r="S18" s="121"/>
     </row>
     <row r="19" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="129"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="83" t="s">
+      <c r="D19" s="127"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="84"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="83" t="s">
+      <c r="J19" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="84"/>
+      <c r="K19" s="92"/>
       <c r="L19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="83" t="s">
+      <c r="N19" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="O19" s="84"/>
+      <c r="O19" s="92"/>
       <c r="P19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="R19" s="83" t="s">
+      <c r="R19" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="101"/>
+      <c r="S19" s="121"/>
     </row>
     <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="83" t="s">
+      <c r="D20" s="127"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="84"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="83" t="s">
+      <c r="J20" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="84"/>
+      <c r="K20" s="92"/>
       <c r="L20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="N20" s="83" t="s">
+      <c r="N20" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="O20" s="84"/>
-      <c r="P20" s="83" t="s">
+      <c r="O20" s="92"/>
+      <c r="P20" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="83" t="s">
+      <c r="Q20" s="92"/>
+      <c r="R20" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="S20" s="101"/>
+      <c r="S20" s="121"/>
     </row>
     <row r="21" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="57" t="s">
+      <c r="D21" s="127"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="83" t="s">
+      <c r="H21" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="84"/>
+      <c r="I21" s="92"/>
       <c r="J21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="83" t="s">
+      <c r="M21" s="92"/>
+      <c r="N21" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="84"/>
+      <c r="O21" s="92"/>
       <c r="P21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="S21" s="99"/>
+      <c r="S21" s="118"/>
     </row>
     <row r="22" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="83" t="s">
+      <c r="D22" s="125"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85" t="s">
+      <c r="G22" s="92"/>
+      <c r="H22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="86"/>
-      <c r="J22" s="85" t="s">
+      <c r="I22" s="88"/>
+      <c r="J22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="85" t="s">
+      <c r="K22" s="88"/>
+      <c r="L22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="86"/>
-      <c r="N22" s="85" t="s">
+      <c r="M22" s="88"/>
+      <c r="N22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="86"/>
-      <c r="P22" s="83" t="s">
+      <c r="O22" s="88"/>
+      <c r="P22" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85" t="s">
+      <c r="Q22" s="92"/>
+      <c r="R22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S22" s="99"/>
+      <c r="S22" s="118"/>
     </row>
     <row r="23" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="83" t="s">
+      <c r="D23" s="125"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85" t="s">
+      <c r="G23" s="92"/>
+      <c r="H23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="85" t="s">
+      <c r="I23" s="88"/>
+      <c r="J23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="85" t="s">
+      <c r="K23" s="88"/>
+      <c r="L23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="85" t="s">
+      <c r="M23" s="88"/>
+      <c r="N23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="86"/>
-      <c r="P23" s="85" t="s">
+      <c r="O23" s="88"/>
+      <c r="P23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="85" t="s">
+      <c r="Q23" s="88"/>
+      <c r="R23" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="S23" s="99"/>
+      <c r="S23" s="118"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="108"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="115"/>
     </row>
     <row r="25" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="86"/>
-      <c r="J25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="86"/>
-      <c r="P25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="S25" s="99"/>
+      <c r="C25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="125"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="88"/>
+      <c r="J25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="88"/>
+      <c r="L25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="88"/>
+      <c r="N25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="88"/>
+      <c r="P25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="118"/>
     </row>
     <row r="26" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="130"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="88"/>
-      <c r="J26" s="87" t="s">
+      <c r="I26" s="108"/>
+      <c r="J26" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="87" t="s">
+      <c r="K26" s="108"/>
+      <c r="L26" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="88"/>
-      <c r="N26" s="87" t="s">
+      <c r="M26" s="108"/>
+      <c r="N26" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="88"/>
-      <c r="P26" s="87" t="s">
+      <c r="O26" s="108"/>
+      <c r="P26" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="103" t="s">
+      <c r="Q26" s="108"/>
+      <c r="R26" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="S26" s="104"/>
+      <c r="S26" s="124"/>
     </row>
     <row r="27" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="130"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="60" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="87" t="s">
+      <c r="G27" s="57"/>
+      <c r="H27" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="I27" s="88"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L27" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="M27" s="88"/>
-      <c r="N27" s="87" t="s">
+      <c r="M27" s="108"/>
+      <c r="N27" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="O27" s="88"/>
-      <c r="P27" s="87" t="s">
+      <c r="O27" s="108"/>
+      <c r="P27" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="Q27" s="88"/>
+      <c r="Q27" s="108"/>
       <c r="R27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="130"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="74"/>
+      <c r="C28" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="103" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="87" t="s">
+      <c r="G28" s="106"/>
+      <c r="H28" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="88"/>
-      <c r="J28" s="87" t="s">
+      <c r="I28" s="108"/>
+      <c r="J28" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="87" t="s">
+      <c r="K28" s="108"/>
+      <c r="L28" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="88"/>
+      <c r="M28" s="108"/>
       <c r="N28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="87" t="s">
+      <c r="R28" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="S28" s="102"/>
+      <c r="S28" s="123"/>
     </row>
     <row r="29" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="130"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="74"/>
+      <c r="C29" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="103" t="s">
+      <c r="D29" s="128"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="119"/>
+      <c r="G29" s="106"/>
       <c r="H29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="24" t="s">
         <v>109</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="24" t="s">
         <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N29" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="88"/>
-      <c r="P29" s="87" t="s">
+      <c r="O29" s="108"/>
+      <c r="P29" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="87" t="s">
+      <c r="Q29" s="108"/>
+      <c r="R29" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="102"/>
+      <c r="S29" s="123"/>
     </row>
     <row r="30" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="130"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="59" t="s">
+      <c r="E30" s="108"/>
+      <c r="F30" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="87" t="s">
+      <c r="H30" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="88"/>
+      <c r="I30" s="108"/>
       <c r="J30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="24" t="s">
         <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="N30" s="87" t="s">
+      <c r="N30" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="O30" s="88"/>
-      <c r="P30" s="76" t="s">
+      <c r="O30" s="108"/>
+      <c r="P30" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R30" s="76" t="s">
+      <c r="R30" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="S30" s="50" t="s">
+      <c r="S30" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="130"/>
-      <c r="C31" s="39" t="s">
+      <c r="B31" s="74"/>
+      <c r="C31" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="61" t="s">
+      <c r="E31" s="135"/>
+      <c r="F31" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="88"/>
-      <c r="J31" s="87" t="s">
+      <c r="I31" s="108"/>
+      <c r="J31" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="87" t="s">
+      <c r="K31" s="108"/>
+      <c r="L31" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="M31" s="88"/>
+      <c r="M31" s="108"/>
       <c r="N31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="24" t="s">
         <v>107</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q31" s="25" t="s">
+      <c r="Q31" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="R31" s="85" t="s">
+      <c r="R31" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="99"/>
+      <c r="S31" s="118"/>
     </row>
     <row r="32" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="130"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="113" t="s">
+      <c r="E32" s="108"/>
+      <c r="F32" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="114"/>
-      <c r="H32" s="85" t="s">
+      <c r="G32" s="102"/>
+      <c r="H32" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="86"/>
-      <c r="J32" s="87" t="s">
+      <c r="I32" s="88"/>
+      <c r="J32" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="88"/>
+      <c r="K32" s="108"/>
       <c r="L32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="87" t="s">
+      <c r="N32" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="O32" s="88"/>
-      <c r="P32" s="85" t="s">
+      <c r="O32" s="108"/>
+      <c r="P32" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="85" t="s">
+      <c r="Q32" s="88"/>
+      <c r="R32" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S32" s="99"/>
+      <c r="S32" s="118"/>
     </row>
     <row r="33" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="130"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="113" t="s">
+      <c r="D33" s="125"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="114"/>
-      <c r="H33" s="85" t="s">
+      <c r="G33" s="102"/>
+      <c r="H33" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="85" t="s">
+      <c r="I33" s="88"/>
+      <c r="J33" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="85" t="s">
+      <c r="K33" s="88"/>
+      <c r="L33" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="113" t="s">
+      <c r="M33" s="88"/>
+      <c r="N33" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="114"/>
-      <c r="P33" s="85" t="s">
+      <c r="O33" s="102"/>
+      <c r="P33" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="85" t="s">
+      <c r="Q33" s="88"/>
+      <c r="R33" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="S33" s="99"/>
+      <c r="S33" s="118"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="108"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="115"/>
     </row>
     <row r="35" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="66"/>
+      <c r="C35" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="125"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="56"/>
       <c r="H35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="86"/>
-      <c r="L35" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="86"/>
-      <c r="N35" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" s="86"/>
-      <c r="P35" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="S35" s="99"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="88"/>
+      <c r="L35" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="88"/>
+      <c r="N35" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" s="88"/>
+      <c r="P35" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="118"/>
     </row>
     <row r="36" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="131"/>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="75"/>
+      <c r="C36" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="97" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="98"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="79" t="s">
+      <c r="J36" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="79" t="s">
+      <c r="K36" s="112"/>
+      <c r="L36" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="89"/>
-      <c r="N36" s="79" t="s">
+      <c r="M36" s="112"/>
+      <c r="N36" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="O36" s="89"/>
+      <c r="O36" s="112"/>
       <c r="P36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="23" t="s">
+      <c r="Q36" s="22" t="s">
         <v>136</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="S36" s="18" t="s">
+      <c r="S36" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="131"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="97" t="s">
+      <c r="E37" s="112"/>
+      <c r="F37" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="79" t="s">
+      <c r="G37" s="104"/>
+      <c r="H37" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="89"/>
-      <c r="J37" s="79" t="s">
+      <c r="I37" s="112"/>
+      <c r="J37" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="K37" s="89"/>
+      <c r="K37" s="112"/>
       <c r="L37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="N37" s="79" t="s">
+      <c r="N37" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="O37" s="89"/>
+      <c r="O37" s="112"/>
       <c r="P37" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q37" s="23" t="s">
+      <c r="Q37" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="R37" s="79" t="s">
+      <c r="R37" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="S37" s="80"/>
+      <c r="S37" s="119"/>
     </row>
     <row r="38" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="131"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="75"/>
+      <c r="C38" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="97" t="s">
+      <c r="D38" s="129"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="98"/>
+      <c r="G38" s="104"/>
       <c r="H38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="79" t="s">
+      <c r="J38" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="K38" s="89"/>
-      <c r="L38" s="79" t="s">
+      <c r="K38" s="112"/>
+      <c r="L38" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="M38" s="89"/>
+      <c r="M38" s="112"/>
       <c r="N38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="23" t="s">
+      <c r="O38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="P38" s="79" t="s">
+      <c r="P38" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="89"/>
+      <c r="Q38" s="112"/>
       <c r="R38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="18" t="s">
+      <c r="S38" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="131"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="97" t="s">
+      <c r="F39" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="98"/>
-      <c r="H39" s="79" t="s">
+      <c r="G39" s="104"/>
+      <c r="H39" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="89"/>
+      <c r="I39" s="112"/>
       <c r="J39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>123</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="N39" s="79" t="s">
+      <c r="N39" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="O39" s="89"/>
-      <c r="P39" s="79" t="s">
+      <c r="O39" s="112"/>
+      <c r="P39" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="Q39" s="89"/>
+      <c r="Q39" s="112"/>
       <c r="R39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S39" s="18" t="s">
+      <c r="S39" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="131"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="62" t="s">
+      <c r="D40" s="129"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="I40" s="89"/>
-      <c r="J40" s="79" t="s">
+      <c r="I40" s="112"/>
+      <c r="J40" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="72" t="s">
+      <c r="K40" s="112"/>
+      <c r="L40" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="M40" s="41" t="s">
+      <c r="M40" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="N40" s="72" t="s">
+      <c r="N40" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="O40" s="41" t="s">
+      <c r="O40" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="P40" s="77" t="s">
+      <c r="P40" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="Q40" s="47" t="s">
+      <c r="Q40" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="R40" s="77" t="s">
+      <c r="R40" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="S40" s="48" t="s">
+      <c r="S40" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="131"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="98"/>
-      <c r="F41" s="62" t="s">
+      <c r="E41" s="104"/>
+      <c r="F41" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="70" t="s">
+      <c r="J41" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="K41" s="54" t="s">
+      <c r="K41" s="44" t="s">
         <v>118</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="M41" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="N41" s="85" t="s">
+      <c r="N41" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="O41" s="86"/>
-      <c r="P41" s="79" t="s">
+      <c r="O41" s="88"/>
+      <c r="P41" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="79" t="s">
+      <c r="Q41" s="112"/>
+      <c r="R41" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="S41" s="80"/>
+      <c r="S41" s="119"/>
     </row>
     <row r="42" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="131"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="75"/>
+      <c r="C42" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="62" t="s">
+      <c r="D42" s="131"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="86"/>
+      <c r="I42" s="88"/>
       <c r="J42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L42" s="85" t="s">
+      <c r="L42" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="M42" s="86"/>
-      <c r="N42" s="85" t="s">
+      <c r="M42" s="88"/>
+      <c r="N42" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="O42" s="86"/>
-      <c r="P42" s="85" t="s">
+      <c r="O42" s="88"/>
+      <c r="P42" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="85" t="s">
+      <c r="Q42" s="88"/>
+      <c r="R42" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S42" s="99"/>
+      <c r="S42" s="118"/>
     </row>
     <row r="43" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="131"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="62" t="s">
+      <c r="D43" s="125"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="85" t="s">
+      <c r="H43" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="86"/>
-      <c r="J43" s="85" t="s">
+      <c r="I43" s="88"/>
+      <c r="J43" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="K43" s="86"/>
-      <c r="L43" s="85" t="s">
+      <c r="K43" s="112"/>
+      <c r="L43" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="M43" s="86"/>
-      <c r="N43" s="85" t="s">
+      <c r="M43" s="88"/>
+      <c r="N43" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="86"/>
-      <c r="P43" s="85" t="s">
+      <c r="O43" s="88"/>
+      <c r="P43" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="85" t="s">
+      <c r="Q43" s="88"/>
+      <c r="R43" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="S43" s="99"/>
+      <c r="S43" s="118"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="108"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="115"/>
     </row>
     <row r="45" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="66"/>
-      <c r="H45" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="86"/>
-      <c r="J45" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="86"/>
-      <c r="L45" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="86"/>
-      <c r="N45" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O45" s="86"/>
-      <c r="P45" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="S45" s="99"/>
+      <c r="C45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="125"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="88"/>
+      <c r="J45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="88"/>
+      <c r="L45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="88"/>
+      <c r="N45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="88"/>
+      <c r="P45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S45" s="118"/>
     </row>
     <row r="46" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="132"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="95" t="s">
+      <c r="E46" s="96"/>
+      <c r="F46" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="90" t="s">
+      <c r="G46" s="100"/>
+      <c r="H46" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="I46" s="91"/>
-      <c r="J46" s="90" t="s">
+      <c r="I46" s="96"/>
+      <c r="J46" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="K46" s="91"/>
-      <c r="L46" s="90" t="s">
+      <c r="K46" s="96"/>
+      <c r="L46" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="M46" s="91"/>
+      <c r="M46" s="96"/>
       <c r="N46" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="O46" s="21" t="s">
+      <c r="O46" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="90" t="s">
+      <c r="P46" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="90" t="s">
+      <c r="Q46" s="96"/>
+      <c r="R46" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="S46" s="112"/>
+      <c r="S46" s="117"/>
     </row>
     <row r="47" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="132"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="76"/>
+      <c r="C47" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="63" t="s">
+      <c r="D47" s="133"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="90" t="s">
+      <c r="H47" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="91"/>
+      <c r="I47" s="96"/>
       <c r="J47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="90" t="s">
+      <c r="L47" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="91"/>
+      <c r="M47" s="96"/>
       <c r="N47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O47" s="21" t="s">
+      <c r="O47" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="P47" s="90" t="s">
+      <c r="P47" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="90" t="s">
+      <c r="Q47" s="96"/>
+      <c r="R47" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="S47" s="112"/>
+      <c r="S47" s="117"/>
     </row>
     <row r="48" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="132"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="76"/>
+      <c r="C48" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="95" t="s">
+      <c r="D48" s="133"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="96"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="21"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="M48" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N48" s="90" t="s">
+      <c r="N48" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="O48" s="91"/>
+      <c r="O48" s="96"/>
       <c r="P48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q48" s="21" t="s">
+      <c r="Q48" s="20" t="s">
         <v>136</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="20" t="s">
+      <c r="S48" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="132"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="95" t="s">
+      <c r="F49" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="90" t="s">
+      <c r="G49" s="100"/>
+      <c r="H49" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I49" s="91"/>
-      <c r="J49" s="90" t="s">
+      <c r="I49" s="96"/>
+      <c r="J49" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="K49" s="91"/>
-      <c r="L49" s="71" t="s">
+      <c r="K49" s="96"/>
+      <c r="L49" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="M49" s="44" t="s">
+      <c r="M49" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="O49" s="44" t="s">
+      <c r="O49" s="34" t="s">
         <v>134</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q49" s="21" t="s">
+      <c r="Q49" s="20" t="s">
         <v>107</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S49" s="20" t="s">
+      <c r="S49" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="132"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="76"/>
+      <c r="C50" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="63" t="s">
+      <c r="D50" s="133"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="G50" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="90" t="s">
+      <c r="H50" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="91"/>
+      <c r="I50" s="96"/>
       <c r="J50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L50" s="90" t="s">
+      <c r="L50" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="M50" s="91"/>
-      <c r="N50" s="90" t="s">
+      <c r="M50" s="96"/>
+      <c r="N50" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="O50" s="91"/>
-      <c r="P50" s="78" t="s">
+      <c r="O50" s="96"/>
+      <c r="P50" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="Q50" s="45" t="s">
+      <c r="Q50" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="R50" s="78" t="s">
+      <c r="R50" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="S50" s="46" t="s">
+      <c r="S50" s="36" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="132"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="76"/>
+      <c r="C51" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="95" t="s">
+      <c r="D51" s="133"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="96"/>
+      <c r="G51" s="100"/>
       <c r="H51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J51" s="90" t="s">
+      <c r="J51" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="K51" s="91"/>
-      <c r="L51" s="90" t="s">
+      <c r="K51" s="96"/>
+      <c r="L51" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="M51" s="91"/>
+      <c r="M51" s="96"/>
       <c r="N51" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="P51" s="90" t="s">
+      <c r="P51" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="Q51" s="91"/>
+      <c r="Q51" s="96"/>
       <c r="R51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S51" s="20" t="s">
+      <c r="S51" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="132"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="76"/>
+      <c r="C52" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="63" t="s">
+      <c r="D52" s="133"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="69" t="s">
+      <c r="G52" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="90" t="s">
+      <c r="H52" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I52" s="91"/>
-      <c r="J52" s="85" t="s">
+      <c r="I52" s="96"/>
+      <c r="J52" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="K52" s="86"/>
-      <c r="L52" s="85" t="s">
+      <c r="K52" s="88"/>
+      <c r="L52" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="M52" s="86"/>
+      <c r="M52" s="88"/>
       <c r="N52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="21" t="s">
+      <c r="O52" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="P52" s="85" t="s">
+      <c r="P52" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="90" t="s">
+      <c r="Q52" s="88"/>
+      <c r="R52" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="S52" s="112"/>
+      <c r="S52" s="117"/>
     </row>
     <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="133"/>
-      <c r="C53" s="30" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="115" t="s">
+      <c r="F53" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="116"/>
-      <c r="H53" s="117" t="s">
+      <c r="G53" s="94"/>
+      <c r="H53" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="118"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="109" t="s">
         <v>68</v>
       </c>
@@ -3425,11 +3426,285 @@
       <c r="R53" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="S53" s="111"/>
+      <c r="S53" s="116"/>
     </row>
     <row r="54" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="261">
+  <mergeCells count="298">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B15:B23"/>
@@ -3454,243 +3729,6 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="N30:O30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
